--- a/biology/Zoologie/Aigle_de_Weiske/Aigle_de_Weiske.xlsx
+++ b/biology/Zoologie/Aigle_de_Weiske/Aigle_de_Weiske.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hieraaetus weiskei
 L'Aigle de Weiske (Hieraaetus weiskei) est une espèce d'oiseaux de la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commémore le naturaliste allemand Emil Weiske (en) (1867-1950).
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Nouvelle-Guinée.
 </t>
@@ -574,7 +590,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les travaux phylogéniques de Bunce et al. (2005) montrent que cette espèce est clairement distincte génétiquement, morphologiquement et géographiquement de l'Aigle nain (Hieraaetus morphnoides), dont elle était considérée être une sous-espèce jusque-là.
 </t>
